--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H2">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.07514179775227</v>
+        <v>1.482117666666667</v>
       </c>
       <c r="N2">
-        <v>1.07514179775227</v>
+        <v>4.446353</v>
       </c>
       <c r="O2">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="P2">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="Q2">
-        <v>2.629378487881633</v>
+        <v>4.285550149715777</v>
       </c>
       <c r="R2">
-        <v>2.629378487881633</v>
+        <v>38.569951347442</v>
       </c>
       <c r="S2">
-        <v>0.01384320205593334</v>
+        <v>0.01701246600963427</v>
       </c>
       <c r="T2">
-        <v>0.01384320205593334</v>
+        <v>0.01701246600963427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H3">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.3497057757717</v>
+        <v>2.365790333333333</v>
       </c>
       <c r="N3">
-        <v>2.3497057757717</v>
+        <v>7.097371</v>
       </c>
       <c r="O3">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883227</v>
       </c>
       <c r="P3">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883226</v>
       </c>
       <c r="Q3">
-        <v>5.746466031347528</v>
+        <v>6.840693789188222</v>
       </c>
       <c r="R3">
-        <v>5.746466031347528</v>
+        <v>61.566244102694</v>
       </c>
       <c r="S3">
-        <v>0.03025410405771992</v>
+        <v>0.02715568981933373</v>
       </c>
       <c r="T3">
-        <v>0.03025410405771992</v>
+        <v>0.02715568981933372</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H4">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I4">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J4">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.10964258366618</v>
+        <v>6.724832333333333</v>
       </c>
       <c r="N4">
-        <v>6.10964258366618</v>
+        <v>20.174497</v>
       </c>
       <c r="O4">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="P4">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="Q4">
-        <v>14.94180843096471</v>
+        <v>19.44488407438422</v>
       </c>
       <c r="R4">
-        <v>14.94180843096471</v>
+        <v>175.003956669458</v>
       </c>
       <c r="S4">
-        <v>0.07866591825566201</v>
+        <v>0.07719088980878677</v>
       </c>
       <c r="T4">
-        <v>0.07866591825566201</v>
+        <v>0.07719088980878677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H5">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.07514179775227</v>
+        <v>1.482117666666667</v>
       </c>
       <c r="N5">
-        <v>1.07514179775227</v>
+        <v>4.446353</v>
       </c>
       <c r="O5">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="P5">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="Q5">
-        <v>12.23429408010061</v>
+        <v>17.84533352322411</v>
       </c>
       <c r="R5">
-        <v>12.23429408010061</v>
+        <v>160.608001709017</v>
       </c>
       <c r="S5">
-        <v>0.06441134501674146</v>
+        <v>0.07084111009984841</v>
       </c>
       <c r="T5">
-        <v>0.06441134501674146</v>
+        <v>0.07084111009984839</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H6">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J6">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.3497057757717</v>
+        <v>2.365790333333333</v>
       </c>
       <c r="N6">
-        <v>2.3497057757717</v>
+        <v>7.097371</v>
       </c>
       <c r="O6">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883227</v>
       </c>
       <c r="P6">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883226</v>
       </c>
       <c r="Q6">
-        <v>26.73786055253494</v>
+        <v>28.48513211457989</v>
       </c>
       <c r="R6">
-        <v>26.73786055253494</v>
+        <v>256.3661890312191</v>
       </c>
       <c r="S6">
-        <v>0.1407699986434107</v>
+        <v>0.1130782104863179</v>
       </c>
       <c r="T6">
-        <v>0.1407699986434107</v>
+        <v>0.1130782104863179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H7">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J7">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.10964258366618</v>
+        <v>6.724832333333333</v>
       </c>
       <c r="N7">
-        <v>6.10964258366618</v>
+        <v>20.174497</v>
       </c>
       <c r="O7">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="P7">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="Q7">
-        <v>69.52307523449173</v>
+        <v>80.9698707296259</v>
       </c>
       <c r="R7">
-        <v>69.52307523449173</v>
+        <v>728.728836566633</v>
       </c>
       <c r="S7">
-        <v>0.3660264136397884</v>
+        <v>0.3214283173616807</v>
       </c>
       <c r="T7">
-        <v>0.3660264136397884</v>
+        <v>0.3214283173616807</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H8">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I8">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J8">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.07514179775227</v>
+        <v>1.482117666666667</v>
       </c>
       <c r="N8">
-        <v>1.07514179775227</v>
+        <v>4.446353</v>
       </c>
       <c r="O8">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="P8">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="Q8">
-        <v>6.554618629482001</v>
+        <v>13.18210125698233</v>
       </c>
       <c r="R8">
-        <v>6.554618629482001</v>
+        <v>118.638911312841</v>
       </c>
       <c r="S8">
-        <v>0.03450888128342705</v>
+        <v>0.05232934902998215</v>
       </c>
       <c r="T8">
-        <v>0.03450888128342705</v>
+        <v>0.05232934902998213</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H9">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I9">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J9">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.3497057757717</v>
+        <v>2.365790333333333</v>
       </c>
       <c r="N9">
-        <v>2.3497057757717</v>
+        <v>7.097371</v>
       </c>
       <c r="O9">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883227</v>
       </c>
       <c r="P9">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883226</v>
       </c>
       <c r="Q9">
-        <v>14.32501767103969</v>
+        <v>21.04157343790967</v>
       </c>
       <c r="R9">
-        <v>14.32501767103969</v>
+        <v>189.374160941187</v>
       </c>
       <c r="S9">
-        <v>0.07541862648871914</v>
+        <v>0.08352931138267101</v>
       </c>
       <c r="T9">
-        <v>0.07541862648871914</v>
+        <v>0.08352931138267099</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H10">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I10">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J10">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.10964258366618</v>
+        <v>6.724832333333333</v>
       </c>
       <c r="N10">
-        <v>6.10964258366618</v>
+        <v>20.174497</v>
       </c>
       <c r="O10">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="P10">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="Q10">
-        <v>37.24753068115972</v>
+        <v>59.81132453106766</v>
       </c>
       <c r="R10">
-        <v>37.24753068115972</v>
+        <v>538.301920779609</v>
       </c>
       <c r="S10">
-        <v>0.1961015105585979</v>
+        <v>0.2374346560017451</v>
       </c>
       <c r="T10">
-        <v>0.1961015105585979</v>
+        <v>0.2374346560017451</v>
       </c>
     </row>
   </sheetData>
